--- a/biology/Zoologie/Formica_sepulta/Formica_sepulta.xlsx
+++ b/biology/Zoologie/Formica_sepulta/Formica_sepulta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica sepulta est une espèce fossile d'insectes hyménoptères fourmi du genre Formica dans la tribu des Formicini.
 </t>
@@ -511,16 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica sepulta est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype Am5 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient des collections du Muséum national d'histoire naturelle de Paris[3] et du gypse d'Aix-en-Provence. Il a un cotype A31 mâle venant des collections de l'institut Géologique de Lyon et même lieu géographique d'Aix-en-Provence[1].
-Il a aussi un échantillon R691 de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[4]. Ce spécimen proviennent du gisement de Kleinkembs éocène[4], dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin[5].
-Confirmation du genre Formica
-L'espèce Formica sepulta est confirmée dans le genre Formica en 2012 par le myrmécologue anglais Barry Bolton (1938-)[6]
-Étymologie
-L'épithète spécifique latine sepulta signifie « enterrée ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica sepulta est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -546,19 +553,208 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am5 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient des collections du Muséum national d'histoire naturelle de Paris et du gypse d'Aix-en-Provence. Il a un cotype A31 mâle venant des collections de l'institut Géologique de Lyon et même lieu géographique d'Aix-en-Provence.
+Il a aussi un échantillon R691 de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen proviennent du gisement de Kleinkembs éocène, dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Formica</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica sepulta est confirmée dans le genre Formica en 2012 par le myrmécologue anglais Barry Bolton (1938-)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine sepulta signifie « enterrée ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[7],[note 1] : Pour l'holotype femelle R386 
-« Insecte de teinte brun foncé, portant encore des taches noires sur la tête et le thorax et qui, à l'origine, a du être noir. tête de forme trapézoïdale, plus large à l'arrière qu'à l'avant, arrondie sur les angles; yeux assez gros sur A31 (♂), plus petits sur Am5 (♀); mandibules faibles, à peine saillantes; antennes coudées, insérées en avant des yeux; scape court. Cou net. thorax ovale, plus large que la tête; pronotum non visible de la face dorsale; mésonotum bien développé. Pétiole court, formé d'un seul segment transversal. abdomen globuleux, subsphérique, légèrement étiré aux deux extrémités, 5 segments sur Am5, 6 segments visibles sur A31. pattes grêles, assez longues. Ailes transparentes; le n° Am5 n'en conserve qu'un fragment; le n° A31 monter la partie basale des 4 ailes. Il y a d'ailleurs une légère dissymétrie dans la nervation des ailes des deux côtés de A31; une cellule discoïdale losangique fermée; une cellule cubitale fermée; stigma noir, court, de forme triangulaire. »[7].
-Dimensions
-La longueur totale est de 3,5-4 mm[7].
-Affinités
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype femelle R386 
+« Insecte de teinte brun foncé, portant encore des taches noires sur la tête et le thorax et qui, à l'origine, a du être noir. tête de forme trapézoïdale, plus large à l'arrière qu'à l'avant, arrondie sur les angles; yeux assez gros sur A31 (♂), plus petits sur Am5 (♀); mandibules faibles, à peine saillantes; antennes coudées, insérées en avant des yeux; scape court. Cou net. thorax ovale, plus large que la tête; pronotum non visible de la face dorsale; mésonotum bien développé. Pétiole court, formé d'un seul segment transversal. abdomen globuleux, subsphérique, légèrement étiré aux deux extrémités, 5 segments sur Am5, 6 segments visibles sur A31. pattes grêles, assez longues. Ailes transparentes; le n° Am5 n'en conserve qu'un fragment; le n° A31 monter la partie basale des 4 ailes. Il y a d'ailleurs une légère dissymétrie dans la nervation des ailes des deux côtés de A31; une cellule discoïdale losangique fermée; une cellule cubitale fermée; stigma noir, court, de forme triangulaire. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 3,5-4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_sepulta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Cette très belle fourmi semble être représentée aussi dans l'Oligocène d'Alsace.
-L'échantillon du Museum de Paris porte l'indication Formica sepulta ♀ Saussurre. A notre connaissance, cette espèce de Saussure n'a jamais été publiée. »[7].
+L'échantillon du Museum de Paris porte l'indication Formica sepulta ♀ Saussurre. A notre connaissance, cette espèce de Saussure n'a jamais été publiée. ».
 </t>
         </is>
       </c>
